--- a/docentes/Gaspar Velazco Juan Francisco - Estadisticos 20242.xlsx
+++ b/docentes/Gaspar Velazco Juan Francisco - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="94">
   <si>
     <t>Mat</t>
   </si>
@@ -88,166 +88,217 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>COBOS</t>
+  </si>
+  <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
     <t>FLORES</t>
   </si>
   <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>JIMENEZ</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>IBARRA</t>
+  </si>
+  <si>
+    <t>PELAYO</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>LARA</t>
   </si>
   <si>
     <t>PERALTA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>IBARRA</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>PELAYO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>COCOTLE</t>
+    <t>ZACARIAS</t>
   </si>
   <si>
     <t>CONTRERAS</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>LARA</t>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>LAGUNA</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>ALCANTARA</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
+  </si>
+  <si>
+    <t>ZAYAS</t>
+  </si>
+  <si>
+    <t>TORRES</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>ZACARIAS</t>
+    <t>VALIENTE</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
   </si>
   <si>
     <t>AUTRAN</t>
   </si>
   <si>
-    <t>LAGUNA</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>SUAREZ</t>
-  </si>
-  <si>
-    <t>SOSA</t>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
   </si>
   <si>
     <t>CRISTOBAL</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>ZAYAS</t>
-  </si>
-  <si>
-    <t>CAMPOS</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VALIENTE</t>
-  </si>
-  <si>
-    <t>IXMATLAHUA</t>
-  </si>
-  <si>
     <t>MARROQUIN</t>
   </si>
   <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
+    <t>DIEGO ARMANDO</t>
+  </si>
+  <si>
+    <t>YOLET</t>
+  </si>
+  <si>
+    <t>FABIAN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>SERGIO JOSUE</t>
+  </si>
+  <si>
+    <t>JHON STEVE</t>
+  </si>
+  <si>
+    <t>KARINA MONSERRATH</t>
+  </si>
+  <si>
+    <t>JOSE MARCOS</t>
+  </si>
+  <si>
+    <t>KEVIN SANTIAGO</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>SABDY</t>
+  </si>
+  <si>
+    <t>LUIS FABIAN</t>
+  </si>
+  <si>
+    <t>REGINA DAYTRI</t>
+  </si>
+  <si>
+    <t>ARMANDO</t>
+  </si>
+  <si>
+    <t>IVAN JESUS</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>DIEGO DE JESUS</t>
+  </si>
+  <si>
+    <t>JOSUE GUSTAVO</t>
   </si>
   <si>
     <t>AXEL AARON</t>
   </si>
   <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>SABDY</t>
-  </si>
-  <si>
-    <t>SERGIO JOSUE</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
+    <t>NATANAHEL</t>
   </si>
   <si>
     <t>TRISTAN YABAL</t>
   </si>
   <si>
-    <t>LUIS FABIAN</t>
-  </si>
-  <si>
-    <t>ARMANDO</t>
-  </si>
-  <si>
-    <t>KEVIN SANTIAGO</t>
-  </si>
-  <si>
-    <t>IVAN JESUS</t>
-  </si>
-  <si>
-    <t>DIEGO DE JESUS</t>
-  </si>
-  <si>
-    <t>PAOLA</t>
+    <t>ANGEL ABRAHAM</t>
   </si>
   <si>
     <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>JOSUE GUSTAVO</t>
-  </si>
-  <si>
-    <t>ABDIEL NOE</t>
-  </si>
-  <si>
-    <t>NATANAHEL</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>ABRAHAN</t>
-  </si>
-  <si>
-    <t>ANGEL ABRAHAM</t>
   </si>
 </sst>
 </file>
@@ -849,16 +900,19 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>36.84</v>
+      </c>
+      <c r="H2">
+        <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -872,16 +926,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="H3">
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -895,16 +952,19 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>61.54</v>
+      </c>
+      <c r="H4">
+        <v>6.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -918,16 +978,19 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>85.70999999999999</v>
+      </c>
+      <c r="H5">
+        <v>6.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -941,16 +1004,19 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <v>6.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -964,16 +1030,19 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="H7">
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1110,7 @@
         <v>36.84</v>
       </c>
       <c r="H2">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1058,16 +1127,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H3">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1093,7 +1162,7 @@
         <v>61.54</v>
       </c>
       <c r="H4">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1110,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>78.56999999999999</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H5">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1136,16 +1205,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H6">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1162,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H7">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1250,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1216,16 +1285,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920190</v>
+        <v>23330051920211</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1239,22 +1308,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920389</v>
+        <v>21330051920007</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1262,22 +1331,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920329</v>
+        <v>22330051920413</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1285,16 +1354,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920332</v>
+        <v>22330051920389</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1303,50 +1372,50 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920240</v>
+        <v>23330051920332</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>22330051920196</v>
+        <v>23330051920238</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1354,22 +1423,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>23330051920203</v>
+        <v>23330051920264</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1377,16 +1446,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>23330051920295</v>
+        <v>23330051920317</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -1403,13 +1472,13 @@
         <v>23330051920296</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1423,22 +1492,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>23330051920309</v>
+        <v>22330051920177</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -1446,22 +1515,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>23330051920191</v>
+        <v>22330051920188</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1469,22 +1538,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>23330051920339</v>
+        <v>22330051920190</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1492,22 +1561,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>23330051920289</v>
+        <v>22330051920371</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1515,68 +1584,68 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>22330051920356</v>
+        <v>23330051920329</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>22330051920180</v>
+        <v>23330051920203</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>23330051920189</v>
+        <v>23330051920228</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1584,22 +1653,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>23330051920199</v>
+        <v>23330051920295</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1607,16 +1676,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>23330051920365</v>
+        <v>23330051920309</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -1630,25 +1699,209 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>23330051920280</v>
+        <v>23330051920348</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>23330051920191</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>22330051920356</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>23330051920190</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23330051920189</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>23330051920199</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>22330051920196</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>23330051920280</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>23330051920289</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
